--- a/EXCEL/container.xlsx
+++ b/EXCEL/container.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2878,6 +2878,28 @@
         <v>29664</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>122</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/EXCEL/container.xlsx
+++ b/EXCEL/container.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="6">
@@ -689,20 +689,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>31375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>флакон прозрачный под мыло</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>0.3</t>
@@ -722,7 +726,11 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>флакон белый под посуду</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>1</t>
@@ -742,30 +750,36 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>флакон белый под посуду</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>флакон стекляный</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -784,22 +798,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>пенообразователь</t>
+          <t>флакон стекляный</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -808,22 +822,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>флакон под пробники</t>
+          <t>пенообразователь</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>55475</v>
       </c>
     </row>
     <row r="18">
@@ -837,17 +851,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>2685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -856,22 +870,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>дозатор для пробников 18/240</t>
+          <t>флакон под пробники</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +894,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>крышка белая к пробникам</t>
+          <t>дозатор для пробников 18/240</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -904,7 +918,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>дозатор 28*415 лепесток</t>
+          <t>крышка белая к пробникам</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -913,13 +927,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>44000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -928,7 +942,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>дозатор к умывалкам Китай</t>
+          <t>дозатор 28*415 лепесток</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -937,13 +951,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="23">
@@ -952,16 +966,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>флакон белый под интимгель</t>
+          <t>дозатор к умывалкам Китай</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1222</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -974,14 +988,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>флакон белый под интимгель</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1222</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -996,12 +1014,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>дозатор белый 24/410 для шампуня</t>
+          <t>дозатор прозрачный для шампуня</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1020,7 +1038,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>дозатор 24/410 для крема</t>
+          <t>дозатор белый 24/410 для шампуня</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1029,13 +1047,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2747</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1044,22 +1062,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>туба день роза</t>
+          <t>дозатор 24/410 для крема</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8930</v>
+        <v>2747</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>133950</v>
+        <v>27470</v>
       </c>
     </row>
     <row r="28">
@@ -1068,7 +1086,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>туба день зрелая</t>
+          <t>туба день роза</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1077,13 +1095,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8782</v>
+        <v>8930</v>
       </c>
       <c r="E28" t="n">
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>131730</v>
+        <v>133950</v>
       </c>
     </row>
     <row r="29">
@@ -1092,7 +1110,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>туба день лаванда</t>
+          <t>туба день зрелая</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1101,13 +1119,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8721</v>
+        <v>8782</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>130815</v>
+        <v>131730</v>
       </c>
     </row>
     <row r="30">
@@ -1116,7 +1134,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>туба ночь роза</t>
+          <t>туба день лаванда</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1125,13 +1143,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9690</v>
+        <v>8721</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>145350</v>
+        <v>130815</v>
       </c>
     </row>
     <row r="31">
@@ -1140,7 +1158,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>туба ночь зрелая</t>
+          <t>туба ночь роза</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1149,13 +1167,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9391</v>
+        <v>9690</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>140865</v>
+        <v>145350</v>
       </c>
     </row>
     <row r="32">
@@ -1164,7 +1182,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>туба ночь лаванда</t>
+          <t>туба ночь зрелая</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1173,13 +1191,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9984</v>
+        <v>9391</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>149760</v>
+        <v>140865</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1206,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">туба SOS маска </t>
+          <t>туба ночь лаванда</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4613</v>
+        <v>9984</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>92260</v>
+        <v>149760</v>
       </c>
     </row>
     <row r="34">
@@ -1212,7 +1230,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>туба Укрепляющая маска</t>
+          <t xml:space="preserve">туба SOS маска </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1221,43 +1239,51 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7735</v>
+        <v>4613</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>154700</v>
+        <v>92260</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>туба Укрепляющая маска</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7735</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>154700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>туба белая</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1274,10 +1300,14 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>туба белая</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1294,10 +1324,14 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>туба белая</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1314,10 +1348,14 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>канистра</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1334,10 +1372,14 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>канистра</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1354,10 +1396,14 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>балон</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1374,10 +1420,14 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>банка прозрачная</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1396,22 +1446,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>туба Моллис</t>
+          <t>банка прозрачная</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8930</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>133950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1420,52 +1470,60 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>туба зеленая, старая версия</t>
+          <t>туба Моллис</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2496</v>
+        <v>8930</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>24960</v>
+        <v>133950</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>туба зеленая, старая версия</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>0.1</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>24960</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>диспенсер</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1484,16 +1542,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>диспенсер, контрактное</t>
+          <t>диспенсер</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1508,16 +1566,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>банка для век</t>
+          <t>диспенсер, контрактное</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>137</v>
+        <v>990</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1532,16 +1590,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>банка для масок для лица</t>
+          <t>банка для век</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>423</v>
+        <v>137</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1556,20 +1614,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>крышка белая</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.25</v>
+          <t>банка для масок для лица</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>40</v>
+        <v>423</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1578,22 +1638,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>тубус для ресниц</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0.007</t>
-        </is>
+          <t>крышка белая</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.25</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
@@ -1602,22 +1660,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>тубус для губ</t>
+          <t>тубус для ресниц</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>36000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1626,22 +1684,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>тубус для сыворотки веки</t>
+          <t>тубус для губ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-124</v>
+        <v>3000</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>-0</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="54">
@@ -1650,22 +1708,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>вибронасадка для сыворотки</t>
+          <t>тубус для сыворотки веки</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55">
@@ -1674,7 +1732,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>спреи 24/410</t>
+          <t>вибронасадка для сыворотки</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1686,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1698,19 +1756,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>дойпак к боксу Рамадан</t>
+          <t>спреи 24/410</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -1722,19 +1780,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>дойпак к боксу Стар скин</t>
+          <t>дойпак к боксу Рамадан</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -1746,12 +1804,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>дойпак белый</t>
+          <t>дойпак к боксу Стар скин</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1768,10 +1826,14 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>дойпак белый</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1790,52 +1852,60 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>флакон под шампунь старая версия</t>
+          <t>банка к боксу старскин</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2220</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>22200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>флакон под шампунь старая версия</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>флакон коричневый</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1852,10 +1922,14 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>банка коричневая</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1872,7 +1946,11 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>банка коричневая</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>0.05</t>
@@ -1892,10 +1970,14 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>туба</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1912,10 +1994,14 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>туба</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1934,16 +2020,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>флакон белый к боксу Стар Скин</t>
+          <t>туба</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1958,19 +2044,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>коробка 40х40х30</t>
+          <t>флакон белый к боксу Стар Скин</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E68" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -1982,7 +2068,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>коробка 60Х40Х40</t>
+          <t>коробка 40х40х30</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1994,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2006,7 +2092,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>гофролист 1200Х800</t>
+          <t>коробка 60Х40Х40</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2018,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2030,20 +2116,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>дойпак золотистый</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.2</v>
+          <t>гофролист 1200Х800</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
       <c r="D71" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>-960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2052,20 +2140,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>дойпак серебристый</t>
+          <t>дойпак золотистый</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>0.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-6</v>
+        <v>-80</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>-72</v>
+        <v>-960</v>
       </c>
     </row>
     <row r="73">
@@ -2074,20 +2162,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>бочка с хомутом б/у</t>
+          <t>дойпак серебристый</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>170</v>
+        <v>0.2</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="74">
@@ -2096,14 +2184,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>бочка п/э  б/у</t>
+          <t>бочка с хомутом б/у</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -2118,14 +2206,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>крышка завинчивающаяся 28Х410 протей</t>
+          <t>бочка п/э  б/у</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D75" t="n">
-        <v>12300</v>
+        <v>7</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2138,14 +2226,16 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>крышка завинчивающаяся 28Х410 протей</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -2160,14 +2250,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>флакон белый под интимгель Упаковка 24</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.25</v>
+          <t>флаокн белый матовый</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D77" t="n">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2180,14 +2272,16 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>флакон белый под интимгель Упаковка 24</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.25</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2202,17 +2296,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>флакон прозрачный 200 мл</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
+          <t>флакон прозрачный под шампун</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2224,20 +2320,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>флакон прозрачный 100 мл</t>
+          <t>флакон прозрачный 200 мл</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1416</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>14160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2246,20 +2342,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>флакон белый 500 мл под кератолитик</t>
+          <t>флакон прозрачный 100 мл</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D81" t="n">
-        <v>1255</v>
+        <v>1416</v>
       </c>
       <c r="E81" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>31375</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="82">
@@ -2268,20 +2364,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">флакон прозрачный 300 мл под мыло </t>
+          <t>флакон белый 500 мл под кератолитик</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>4802</v>
+        <v>1255</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F82" t="n">
-        <v>48020</v>
+        <v>31375</v>
       </c>
     </row>
     <row r="83">
@@ -2290,20 +2386,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>флакон белый 1000 мл под посуду</t>
+          <t xml:space="preserve">флакон прозрачный 300 мл под мыло </t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D83" t="n">
-        <v>14832</v>
+        <v>4802</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>48020</v>
       </c>
     </row>
     <row r="84">
@@ -2312,20 +2408,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>флакон стекляный 30 мл</t>
+          <t>флакон белый 1000 мл под посуду</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>-1022</v>
+        <v>14832</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-15330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2334,20 +2430,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>флакон стекляный 10 мл коричневый</t>
+          <t>флакон стекляный</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>0.01</v>
       </c>
       <c r="D85" t="n">
-        <v>562</v>
+        <v>-1022</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>5620</v>
+        <v>-15330</v>
       </c>
     </row>
     <row r="86">
@@ -2356,20 +2452,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>дозатор прозрачный 24/410 для шампуня</t>
+          <t>флакон стекляный</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D86" t="n">
-        <v>1000</v>
+        <v>-1022</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>14000</v>
+        <v>-15330</v>
       </c>
     </row>
     <row r="87">
@@ -2378,20 +2474,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>туба белая 50 мл</t>
+          <t>флакон стекляный 30 мл</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D87" t="n">
-        <v>-228</v>
+        <v>-1022</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>-2280</v>
+        <v>-15330</v>
       </c>
     </row>
     <row r="88">
@@ -2400,20 +2496,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>туба белая 100 мл</t>
+          <t>флакон стекляный 10 мл коричневый</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D88" t="n">
-        <v>-210</v>
+        <v>562</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>-2100</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="89">
@@ -2422,20 +2518,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>туба белая 75 мл</t>
+          <t>дозатор прозрачный 24/410 для шампуня</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="90">
@@ -2444,20 +2540,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>канистра 3 л</t>
+          <t>туба белая 50 мл</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D90" t="n">
-        <v>4629</v>
+        <v>-228</v>
       </c>
       <c r="E90" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>148128</v>
+        <v>-2280</v>
       </c>
     </row>
     <row r="91">
@@ -2466,20 +2562,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>канистра 5 л</t>
+          <t>туба белая 100 мл</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D91" t="n">
-        <v>6976</v>
+        <v>-210</v>
       </c>
       <c r="E91" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>223232</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="92">
@@ -2488,20 +2584,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>банка прозрачная 500 мл</t>
+          <t>туба белая 75 мл</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5</v>
+        <v>0.075</v>
       </c>
       <c r="D92" t="n">
-        <v>5963</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>59630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2510,20 +2606,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>банка прозрачная 250 мл</t>
+          <t>канистра 3 л</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>448</v>
+        <v>4629</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F93" t="n">
-        <v>4480</v>
+        <v>148128</v>
       </c>
     </row>
     <row r="94">
@@ -2532,20 +2628,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>банка прозрачная 200 мл</t>
+          <t>канистра 5 л</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>384</v>
+        <v>6976</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F94" t="n">
-        <v>3840</v>
+        <v>223232</v>
       </c>
     </row>
     <row r="95">
@@ -2554,20 +2650,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>диспенсер 50 мл</t>
+          <t>банка прозрачная 500 мл</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D95" t="n">
-        <v>62</v>
+        <v>5963</v>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>3100</v>
+        <v>59630</v>
       </c>
     </row>
     <row r="96">
@@ -2576,20 +2672,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>диспенсер 100 мл</t>
+          <t>банка прозрачная 250 мл</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D96" t="n">
-        <v>-31</v>
+        <v>448</v>
       </c>
       <c r="E96" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>-1860</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="97">
@@ -2598,20 +2694,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>крышка белая d 89мм</t>
+          <t>банка прозрачная 200 мл</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D97" t="n">
-        <v>1520</v>
+        <v>384</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>9120</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="98">
@@ -2620,20 +2716,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>крышка черная d 89мм</t>
+          <t>диспенсер 50 мл</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="99">
@@ -2642,20 +2738,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>отсекатель d 89мм</t>
+          <t>диспенсер 100 мл</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D99" t="n">
-        <v>1040</v>
+        <v>-31</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F99" t="n">
-        <v>6240</v>
+        <v>-1860</v>
       </c>
     </row>
     <row r="100">
@@ -2664,20 +2760,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>банка к боксу Стар Скин 50 мл</t>
+          <t>крышка белая d 89мм</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="101">
@@ -2686,17 +2782,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>банка к боксу Стар Скин 10 мл</t>
+          <t>крышка черная d 89мм</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -2708,20 +2804,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>банка коричневая 50 мл</t>
+          <t>отсекатель d 89мм</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="103">
@@ -2730,14 +2826,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>банка коричневая 100 мл</t>
+          <t>банка к боксу Стар Скин 50 мл</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D103" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2752,11 +2848,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>туба белая 30 мл</t>
+          <t>банка к боксу Стар Скин 10 мл</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2774,14 +2870,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>дозатор черный 24/410</t>
+          <t>банка коричневая 50 мл</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D105" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2796,14 +2892,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>флакон коричневый 200 мл</t>
+          <t>банка коричневая 100 мл</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D106" t="n">
-        <v>672</v>
+        <v>223</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2818,20 +2914,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>флакон белый матовый 1000 мл</t>
+          <t>туба белая 30 мл</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="D107" t="n">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>25600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2840,20 +2936,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>флакон прозрачный 250 мл под шампун</t>
+          <t>дозатор черный 24/410</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>18900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2862,20 +2958,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>флакон белый глянцевый 1000 мл под посуду</t>
+          <t>флакон коричневый 200 мл</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>14832</v>
+        <v>672</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>29664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2884,20 +2980,64 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>флакон белый матовый 1000 мл</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>122</v>
+        <v>1024</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>1464</v>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>флакон прозрачный 250 мл под шампун</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>756</v>
+      </c>
+      <c r="E111" t="n">
+        <v>25</v>
+      </c>
+      <c r="F111" t="n">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>флакон белый глянцевый 1000 мл под посуду</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>14832</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
